--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/17/word_level_predictions_17.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,161 +1537,161 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>14</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>15</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>16</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G40" s="2" t="b">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G41" s="2" t="b">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G42" s="2" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G49" s="2" t="b">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3414,156 +3414,156 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>5</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Gyroscope</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>5</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>initialization</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>5</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="I62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4090,156 +4090,156 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>7</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Visual</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" t="n">
         <v>7</v>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>positioning</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2" t="inlineStr">
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" t="n">
         <v>7</v>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>inaccurate</t>
         </is>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" t="n">
         <v>2</v>
       </c>
-      <c r="E73" s="2" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2" t="inlineStr">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -4281,11 +4281,11 @@
         </is>
       </c>
       <c r="I74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K74" s="2" t="b">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G82" s="2" t="b">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6118,156 +6118,156 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="D111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6309,11 +6309,11 @@
         </is>
       </c>
       <c r="I113" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K113" s="2" t="b">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G114" s="2" t="b">
@@ -6361,11 +6361,11 @@
         </is>
       </c>
       <c r="I114" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K114" s="2" t="b">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G148" s="2" t="b">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G149" s="2" t="b">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G150" s="2" t="b">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G152" s="2" t="b">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G193" s="2" t="b">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10642,156 +10642,156 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -10833,11 +10833,11 @@
         </is>
       </c>
       <c r="I200" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K200" s="2" t="b">
@@ -10885,11 +10885,11 @@
         </is>
       </c>
       <c r="I201" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K201" s="2" t="b">
@@ -10937,11 +10937,11 @@
         </is>
       </c>
       <c r="I202" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K202" s="2" t="b">
@@ -10989,11 +10989,11 @@
         </is>
       </c>
       <c r="I203" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K203" s="2" t="b">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11110,156 +11110,156 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="inlineStr">
+      <c r="D206" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="D207" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E208" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12774,366 +12774,366 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>21</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>Take</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>8</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>21</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>care</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>9</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>21</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>10</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" t="n">
         <v>21</v>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>your</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" t="n">
         <v>11</v>
       </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" t="n">
         <v>21</v>
       </c>
-      <c r="B242" s="2" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C242" s="2" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>gimbal</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
+      <c r="D242" t="n">
         <v>12</v>
       </c>
-      <c r="E242" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F242" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G242" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L242" s="2" t="inlineStr">
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G242" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K242" t="b">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" t="n">
         <v>21</v>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" s="2" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
+      <c r="D243" t="n">
         <v>13</v>
       </c>
-      <c r="E243" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F243" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G243" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L243" s="2" t="inlineStr">
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>21</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
+      <c r="D244" t="n">
         <v>14</v>
       </c>
-      <c r="E244" s="2" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F244" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G275" s="2" t="b">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="L275" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="F276" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G276" s="2" t="b">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="L276" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="F281" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G281" s="2" t="b">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="L281" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="F282" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G282" s="2" t="b">
@@ -15109,7 +15109,7 @@
       </c>
       <c r="L282" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="F283" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G283" s="2" t="b">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="L283" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="F284" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G284" s="2" t="b">
@@ -15213,7 +15213,7 @@
       </c>
       <c r="L284" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15322,156 +15322,156 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>26</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E287" s="2" t="inlineStr">
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F287" s="2" t="inlineStr">
+      <c r="F287" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>26</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>attitude</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E288" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F288" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" t="n">
         <v>26</v>
       </c>
-      <c r="B289" s="2" t="inlineStr">
+      <c r="B289" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C289" s="2" t="inlineStr">
+      <c r="C289" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D289" s="2" t="n">
+      <c r="D289" t="n">
         <v>2</v>
       </c>
-      <c r="E289" s="2" t="inlineStr">
+      <c r="E289" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F289" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G289" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L289" s="2" t="inlineStr">
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G289" t="b">
+        <v>1</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I289" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K289" t="b">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15501,7 +15501,7 @@
       </c>
       <c r="F290" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G290" s="2" t="b">
@@ -15513,11 +15513,11 @@
         </is>
       </c>
       <c r="I290" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K290" s="2" t="b">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="L290" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15565,11 +15565,11 @@
         </is>
       </c>
       <c r="I291" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F292" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G292" s="2" t="b">
@@ -15617,11 +15617,11 @@
         </is>
       </c>
       <c r="I292" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K292" s="2" t="b">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L292" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G293" s="2" t="b">
@@ -15669,11 +15669,11 @@
         </is>
       </c>
       <c r="I293" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K293" s="2" t="b">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L293" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="F300" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G300" s="2" t="b">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="L300" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16570,156 +16570,156 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" t="n">
         <v>28</v>
       </c>
-      <c r="B311" s="2" t="inlineStr">
+      <c r="B311" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" s="2" t="inlineStr">
+      <c r="C311" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E311" s="2" t="inlineStr">
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" s="2" t="inlineStr">
+      <c r="F311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G311" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L311" s="2" t="inlineStr">
+      <c r="G311" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" t="b">
+        <v>1</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K311" t="b">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" t="n">
         <v>28</v>
       </c>
-      <c r="B312" s="2" t="inlineStr">
+      <c r="B312" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" s="2" t="inlineStr">
+      <c r="C312" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F312" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G312" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L312" s="2" t="inlineStr">
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G312" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" t="b">
+        <v>1</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K312" t="b">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" t="n">
         <v>28</v>
       </c>
-      <c r="B313" s="2" t="inlineStr">
+      <c r="B313" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" s="2" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" s="2" t="n">
+      <c r="D313" t="n">
         <v>2</v>
       </c>
-      <c r="E313" s="2" t="inlineStr">
+      <c r="E313" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G313" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L313" s="2" t="inlineStr">
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K313" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -16761,11 +16761,11 @@
         </is>
       </c>
       <c r="I314" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K314" s="2" t="b">
@@ -16813,11 +16813,11 @@
         </is>
       </c>
       <c r="I315" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K315" s="2" t="b">
@@ -16865,11 +16865,11 @@
         </is>
       </c>
       <c r="I316" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K316" s="2" t="b">
@@ -16917,11 +16917,11 @@
         </is>
       </c>
       <c r="I317" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K317" s="2" t="b">
@@ -16969,11 +16969,11 @@
         </is>
       </c>
       <c r="I318" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K318" s="2" t="b">
@@ -17021,11 +17021,11 @@
         </is>
       </c>
       <c r="I319" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K319" s="2" t="b">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="F320" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G320" s="2" t="b">
@@ -17073,11 +17073,11 @@
         </is>
       </c>
       <c r="I320" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K320" s="2" t="b">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="L320" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="F321" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G321" s="2" t="b">
@@ -17125,11 +17125,11 @@
         </is>
       </c>
       <c r="I321" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K321" s="2" t="b">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="L321" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F322" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G322" s="2" t="b">
@@ -17177,11 +17177,11 @@
         </is>
       </c>
       <c r="I322" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K322" s="2" t="b">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="L322" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17558,416 +17558,416 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Manually</t>
         </is>
       </c>
-      <c r="D330" t="n">
+      <c r="D330" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E330" t="inlineStr">
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>adjust</t>
         </is>
       </c>
-      <c r="D331" t="n">
+      <c r="D331" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
+      <c r="E331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
+      <c r="A332" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B332" s="2" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
+      <c r="C332" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D332" t="n">
+      <c r="D332" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
+      <c r="E332" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
+      <c r="A333" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>route</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="n">
+      <c r="A334" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B334" t="inlineStr">
+      <c r="B334" s="2" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
+      <c r="C334" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D334" t="n">
+      <c r="D334" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G334" t="b">
-        <v>1</v>
-      </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I334" t="b">
-        <v>1</v>
-      </c>
-      <c r="J334" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K334" t="b">
-        <v>1</v>
-      </c>
-      <c r="L334" t="inlineStr">
+      <c r="E334" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F334" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G334" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H334" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I334" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J334" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K334" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L334" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="n">
+      <c r="A335" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B335" t="inlineStr">
+      <c r="B335" s="2" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
+      <c r="C335" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D335" t="n">
+      <c r="D335" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G335" t="b">
-        <v>1</v>
-      </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I335" t="b">
-        <v>1</v>
-      </c>
-      <c r="J335" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K335" t="b">
-        <v>1</v>
-      </c>
-      <c r="L335" t="inlineStr">
+      <c r="E335" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F335" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G335" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H335" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I335" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J335" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K335" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L335" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n">
+      <c r="A336" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B336" t="inlineStr">
+      <c r="B336" s="2" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
+      <c r="C336" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D336" t="n">
+      <c r="D336" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G336" t="b">
-        <v>1</v>
-      </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I336" t="b">
-        <v>1</v>
-      </c>
-      <c r="J336" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K336" t="b">
-        <v>1</v>
-      </c>
-      <c r="L336" t="inlineStr">
+      <c r="E336" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F336" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G336" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H336" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I336" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J336" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K336" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L336" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n">
+      <c r="A337" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B337" t="inlineStr">
+      <c r="B337" s="2" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
+      <c r="C337" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D337" t="n">
+      <c r="D337" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E337" t="inlineStr">
+      <c r="E337" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F337" t="inlineStr">
+      <c r="F337" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G337" t="b">
-        <v>1</v>
-      </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I337" t="b">
-        <v>1</v>
-      </c>
-      <c r="J337" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K337" t="b">
-        <v>1</v>
-      </c>
-      <c r="L337" t="inlineStr">
+      <c r="G337" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H337" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I337" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J337" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K337" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L337" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="F357" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G357" s="2" t="b">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="L357" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="F361" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G361" s="2" t="b">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="L361" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -21429,7 +21429,7 @@
       </c>
       <c r="F404" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G404" s="2" t="b">
@@ -21441,11 +21441,11 @@
         </is>
       </c>
       <c r="I404" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J404" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K404" s="2" t="b">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="L404" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="F405" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G405" s="2" t="b">
@@ -21493,11 +21493,11 @@
         </is>
       </c>
       <c r="I405" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J405" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K405" s="2" t="b">
@@ -21505,7 +21505,7 @@
       </c>
       <c r="L405" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -21533,7 +21533,7 @@
       </c>
       <c r="F406" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G406" s="2" t="b">
@@ -21545,11 +21545,11 @@
         </is>
       </c>
       <c r="I406" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K406" s="2" t="b">
@@ -21557,7 +21557,7 @@
       </c>
       <c r="L406" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       </c>
       <c r="F407" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G407" s="2" t="b">
@@ -21597,11 +21597,11 @@
         </is>
       </c>
       <c r="I407" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K407" s="2" t="b">
@@ -21609,317 +21609,317 @@
       </c>
       <c r="L407" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="n">
+      <c r="A408" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B408" t="inlineStr">
+      <c r="B408" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr">
+      <c r="C408" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D408" t="n">
+      <c r="D408" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E408" t="inlineStr">
+      <c r="E408" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G408" t="b">
-        <v>1</v>
-      </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I408" t="b">
-        <v>1</v>
-      </c>
-      <c r="J408" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K408" t="b">
-        <v>1</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F408" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G408" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H408" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I408" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J408" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K408" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L408" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="n">
+      <c r="A409" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B409" t="inlineStr">
+      <c r="B409" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr">
+      <c r="C409" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="D409" t="n">
+      <c r="D409" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G409" t="b">
-        <v>1</v>
-      </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I409" t="b">
-        <v>1</v>
-      </c>
-      <c r="J409" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K409" t="b">
-        <v>1</v>
-      </c>
-      <c r="L409" t="inlineStr">
+      <c r="E409" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F409" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G409" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H409" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I409" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J409" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K409" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L409" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="n">
+      <c r="A410" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B410" t="inlineStr">
+      <c r="B410" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr">
+      <c r="C410" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D410" t="n">
+      <c r="D410" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G410" t="b">
-        <v>1</v>
-      </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I410" t="b">
-        <v>1</v>
-      </c>
-      <c r="J410" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K410" t="b">
-        <v>1</v>
-      </c>
-      <c r="L410" t="inlineStr">
+      <c r="E410" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F410" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H410" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I410" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J410" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K410" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L410" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="n">
+      <c r="A411" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B411" t="inlineStr">
+      <c r="B411" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr">
+      <c r="C411" s="2" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="D411" t="n">
+      <c r="D411" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G411" t="b">
-        <v>1</v>
-      </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I411" t="b">
-        <v>1</v>
-      </c>
-      <c r="J411" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K411" t="b">
-        <v>1</v>
-      </c>
-      <c r="L411" t="inlineStr">
+      <c r="E411" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F411" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G411" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I411" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J411" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K411" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L411" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="n">
+      <c r="A412" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B412" t="inlineStr">
+      <c r="B412" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr">
+      <c r="C412" s="2" t="inlineStr">
         <is>
           <t>Recommended</t>
         </is>
       </c>
-      <c r="D412" t="n">
+      <c r="D412" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G412" t="b">
-        <v>1</v>
-      </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I412" t="b">
-        <v>1</v>
-      </c>
-      <c r="J412" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K412" t="b">
-        <v>1</v>
-      </c>
-      <c r="L412" t="inlineStr">
+      <c r="E412" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F412" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G412" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H412" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I412" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J412" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K412" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L412" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="n">
+      <c r="A413" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B413" t="inlineStr">
+      <c r="B413" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr">
+      <c r="C413" s="2" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D413" t="n">
+      <c r="D413" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E413" t="inlineStr">
+      <c r="E413" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F413" t="inlineStr">
+      <c r="F413" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G413" t="b">
-        <v>1</v>
-      </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I413" t="b">
-        <v>1</v>
-      </c>
-      <c r="J413" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K413" t="b">
-        <v>1</v>
-      </c>
-      <c r="L413" t="inlineStr">
+      <c r="G413" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H413" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I413" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J413" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K413" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L413" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22677,7 +22677,7 @@
       </c>
       <c r="F428" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G428" s="2" t="b">
@@ -22701,7 +22701,7 @@
       </c>
       <c r="L428" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23122,468 +23122,468 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="n">
+      <c r="A437" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B437" t="inlineStr">
+      <c r="B437" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
+      <c r="C437" s="2" t="inlineStr">
         <is>
           <t>Always</t>
         </is>
       </c>
-      <c r="D437" t="n">
+      <c r="D437" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E437" t="inlineStr">
+      <c r="E437" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G437" t="b">
-        <v>1</v>
-      </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I437" t="b">
-        <v>1</v>
-      </c>
-      <c r="J437" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K437" t="b">
-        <v>1</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F437" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G437" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H437" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I437" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J437" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K437" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L437" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="n">
+      <c r="A438" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B438" t="inlineStr">
+      <c r="B438" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
+      <c r="C438" s="2" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
       </c>
-      <c r="D438" t="n">
+      <c r="D438" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G438" t="b">
-        <v>1</v>
-      </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I438" t="b">
-        <v>1</v>
-      </c>
-      <c r="J438" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K438" t="b">
-        <v>1</v>
-      </c>
-      <c r="L438" t="inlineStr">
+      <c r="E438" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F438" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G438" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I438" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J438" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K438" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L438" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="n">
+      <c r="A439" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B439" t="inlineStr">
+      <c r="B439" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
+      <c r="C439" s="2" t="inlineStr">
         <is>
           <t>visual</t>
         </is>
       </c>
-      <c r="D439" t="n">
+      <c r="D439" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G439" t="b">
-        <v>1</v>
-      </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I439" t="b">
-        <v>1</v>
-      </c>
-      <c r="J439" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K439" t="b">
-        <v>1</v>
-      </c>
-      <c r="L439" t="inlineStr">
+      <c r="E439" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F439" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G439" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I439" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J439" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K439" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L439" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="n">
+      <c r="A440" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B440" t="inlineStr">
+      <c r="B440" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
+      <c r="C440" s="2" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="D440" t="n">
+      <c r="D440" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E440" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G440" t="b">
-        <v>1</v>
-      </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I440" t="b">
-        <v>1</v>
-      </c>
-      <c r="J440" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K440" t="b">
-        <v>1</v>
-      </c>
-      <c r="L440" t="inlineStr">
+      <c r="E440" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F440" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G440" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I440" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J440" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K440" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L440" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="n">
+      <c r="A441" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B441" t="inlineStr">
+      <c r="B441" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr">
+      <c r="C441" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D441" t="n">
+      <c r="D441" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E441" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G441" t="b">
-        <v>1</v>
-      </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I441" t="b">
-        <v>1</v>
-      </c>
-      <c r="J441" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K441" t="b">
-        <v>1</v>
-      </c>
-      <c r="L441" t="inlineStr">
+      <c r="E441" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F441" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G441" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I441" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J441" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K441" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L441" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="n">
+      <c r="A442" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B442" t="inlineStr">
+      <c r="B442" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
+      <c r="C442" s="2" t="inlineStr">
         <is>
           <t>sight</t>
         </is>
       </c>
-      <c r="D442" t="n">
+      <c r="D442" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G442" t="b">
-        <v>1</v>
-      </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I442" t="b">
-        <v>1</v>
-      </c>
-      <c r="J442" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K442" t="b">
-        <v>1</v>
-      </c>
-      <c r="L442" t="inlineStr">
+      <c r="E442" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F442" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G442" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I442" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J442" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K442" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L442" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="n">
+      <c r="A443" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B443" t="inlineStr">
+      <c r="B443" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr">
+      <c r="C443" s="2" t="inlineStr">
         <is>
           <t>unless</t>
         </is>
       </c>
-      <c r="D443" t="n">
+      <c r="D443" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G443" t="b">
-        <v>1</v>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I443" t="b">
-        <v>1</v>
-      </c>
-      <c r="J443" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K443" t="b">
-        <v>1</v>
-      </c>
-      <c r="L443" t="inlineStr">
+      <c r="E443" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F443" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G443" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I443" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J443" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K443" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L443" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="n">
+      <c r="A444" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B444" t="inlineStr">
+      <c r="B444" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
+      <c r="C444" s="2" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="D444" t="n">
+      <c r="D444" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G444" t="b">
-        <v>1</v>
-      </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I444" t="b">
-        <v>1</v>
-      </c>
-      <c r="J444" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K444" t="b">
-        <v>1</v>
-      </c>
-      <c r="L444" t="inlineStr">
+      <c r="E444" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F444" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G444" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I444" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J444" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K444" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L444" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="n">
+      <c r="A445" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B445" t="inlineStr">
+      <c r="B445" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr">
+      <c r="C445" s="2" t="inlineStr">
         <is>
           <t>authorized</t>
         </is>
       </c>
-      <c r="D445" t="n">
+      <c r="D445" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E445" t="inlineStr">
+      <c r="E445" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F445" t="inlineStr">
+      <c r="F445" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G445" t="b">
-        <v>1</v>
-      </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I445" t="b">
-        <v>1</v>
-      </c>
-      <c r="J445" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K445" t="b">
-        <v>1</v>
-      </c>
-      <c r="L445" t="inlineStr">
+      <c r="G445" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I445" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J445" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K445" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L445" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24353,11 +24353,11 @@
         </is>
       </c>
       <c r="I460" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K460" s="2" t="b">
@@ -24405,11 +24405,11 @@
         </is>
       </c>
       <c r="I461" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K461" s="2" t="b">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G462" s="2" t="b">
@@ -24457,11 +24457,11 @@
         </is>
       </c>
       <c r="I462" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J462" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K462" s="2" t="b">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="L462" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24526,208 +24526,208 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="2" t="n">
+      <c r="A464" t="n">
         <v>43</v>
       </c>
-      <c r="B464" s="2" t="inlineStr">
+      <c r="B464" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C464" s="2" t="inlineStr">
+      <c r="C464" t="inlineStr">
         <is>
           <t>CrystalSky</t>
         </is>
       </c>
-      <c r="D464" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E464" s="2" t="inlineStr">
+      <c r="D464" t="n">
+        <v>0</v>
+      </c>
+      <c r="E464" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F464" s="2" t="inlineStr">
+      <c r="F464" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G464" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H464" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I464" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J464" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K464" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L464" s="2" t="inlineStr">
+      <c r="G464" t="b">
+        <v>1</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I464" t="b">
+        <v>1</v>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K464" t="b">
+        <v>1</v>
+      </c>
+      <c r="L464" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="2" t="n">
+      <c r="A465" t="n">
         <v>43</v>
       </c>
-      <c r="B465" s="2" t="inlineStr">
+      <c r="B465" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C465" s="2" t="inlineStr">
+      <c r="C465" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D465" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E465" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F465" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G465" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H465" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I465" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J465" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K465" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L465" s="2" t="inlineStr">
+      <c r="D465" t="n">
+        <v>1</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G465" t="b">
+        <v>1</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I465" t="b">
+        <v>1</v>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K465" t="b">
+        <v>1</v>
+      </c>
+      <c r="L465" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="2" t="n">
+      <c r="A466" t="n">
         <v>43</v>
       </c>
-      <c r="B466" s="2" t="inlineStr">
+      <c r="B466" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C466" s="2" t="inlineStr">
+      <c r="C466" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D466" s="2" t="n">
+      <c r="D466" t="n">
         <v>2</v>
       </c>
-      <c r="E466" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F466" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G466" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H466" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I466" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J466" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K466" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L466" s="2" t="inlineStr">
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G466" t="b">
+        <v>1</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I466" t="b">
+        <v>1</v>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K466" t="b">
+        <v>1</v>
+      </c>
+      <c r="L466" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="2" t="n">
+      <c r="A467" t="n">
         <v>43</v>
       </c>
-      <c r="B467" s="2" t="inlineStr">
+      <c r="B467" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C467" s="2" t="inlineStr">
+      <c r="C467" t="inlineStr">
         <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="D467" s="2" t="n">
+      <c r="D467" t="n">
         <v>3</v>
       </c>
-      <c r="E467" s="2" t="inlineStr">
+      <c r="E467" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F467" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G467" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H467" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I467" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J467" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K467" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L467" s="2" t="inlineStr">
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G467" t="b">
+        <v>1</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I467" t="b">
+        <v>1</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K467" t="b">
+        <v>1</v>
+      </c>
+      <c r="L467" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24769,11 +24769,11 @@
         </is>
       </c>
       <c r="I468" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J468" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K468" s="2" t="b">
@@ -24809,7 +24809,7 @@
       </c>
       <c r="F469" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G469" s="2" t="b">
@@ -24821,11 +24821,11 @@
         </is>
       </c>
       <c r="I469" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J469" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K469" s="2" t="b">
@@ -24833,7 +24833,7 @@
       </c>
       <c r="L469" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24861,7 +24861,7 @@
       </c>
       <c r="F470" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G470" s="2" t="b">
@@ -24873,11 +24873,11 @@
         </is>
       </c>
       <c r="I470" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J470" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K470" s="2" t="b">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="L470" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24913,7 +24913,7 @@
       </c>
       <c r="F471" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G471" s="2" t="b">
@@ -24925,11 +24925,11 @@
         </is>
       </c>
       <c r="I471" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J471" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K471" s="2" t="b">
@@ -24937,7 +24937,7 @@
       </c>
       <c r="L471" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="F472" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G472" s="2" t="b">
@@ -24977,11 +24977,11 @@
         </is>
       </c>
       <c r="I472" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J472" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K472" s="2" t="b">
@@ -24989,7 +24989,7 @@
       </c>
       <c r="L472" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="F473" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G473" s="2" t="b">
@@ -25029,11 +25029,11 @@
         </is>
       </c>
       <c r="I473" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J473" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K473" s="2" t="b">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="L473" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25069,7 +25069,7 @@
       </c>
       <c r="F474" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G474" s="2" t="b">
@@ -25081,11 +25081,11 @@
         </is>
       </c>
       <c r="I474" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J474" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K474" s="2" t="b">
@@ -25093,7 +25093,7 @@
       </c>
       <c r="L474" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25150,208 +25150,208 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="2" t="n">
+      <c r="A476" t="n">
         <v>44</v>
       </c>
-      <c r="B476" s="2" t="inlineStr">
+      <c r="B476" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C476" s="2" t="inlineStr">
+      <c r="C476" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D476" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E476" s="2" t="inlineStr">
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F476" s="2" t="inlineStr">
+      <c r="F476" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G476" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H476" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I476" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J476" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K476" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L476" s="2" t="inlineStr">
+      <c r="G476" t="b">
+        <v>1</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I476" t="b">
+        <v>1</v>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K476" t="b">
+        <v>1</v>
+      </c>
+      <c r="L476" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="2" t="n">
+      <c r="A477" t="n">
         <v>44</v>
       </c>
-      <c r="B477" s="2" t="inlineStr">
+      <c r="B477" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C477" s="2" t="inlineStr">
+      <c r="C477" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D477" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E477" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F477" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G477" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H477" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I477" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J477" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K477" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L477" s="2" t="inlineStr">
+      <c r="D477" t="n">
+        <v>1</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G477" t="b">
+        <v>1</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I477" t="b">
+        <v>1</v>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K477" t="b">
+        <v>1</v>
+      </c>
+      <c r="L477" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="2" t="n">
+      <c r="A478" t="n">
         <v>44</v>
       </c>
-      <c r="B478" s="2" t="inlineStr">
+      <c r="B478" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C478" s="2" t="inlineStr">
+      <c r="C478" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D478" s="2" t="n">
+      <c r="D478" t="n">
         <v>2</v>
       </c>
-      <c r="E478" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F478" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G478" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H478" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I478" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J478" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K478" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L478" s="2" t="inlineStr">
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G478" t="b">
+        <v>1</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I478" t="b">
+        <v>1</v>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K478" t="b">
+        <v>1</v>
+      </c>
+      <c r="L478" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="2" t="n">
+      <c r="A479" t="n">
         <v>44</v>
       </c>
-      <c r="B479" s="2" t="inlineStr">
+      <c r="B479" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C479" s="2" t="inlineStr">
+      <c r="C479" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D479" s="2" t="n">
+      <c r="D479" t="n">
         <v>3</v>
       </c>
-      <c r="E479" s="2" t="inlineStr">
+      <c r="E479" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F479" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G479" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H479" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I479" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J479" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K479" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L479" s="2" t="inlineStr">
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G479" t="b">
+        <v>1</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I479" t="b">
+        <v>1</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K479" t="b">
+        <v>1</v>
+      </c>
+      <c r="L479" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -25393,11 +25393,11 @@
         </is>
       </c>
       <c r="I480" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J480" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K480" s="2" t="b">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="F481" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G481" s="2" t="b">
@@ -25445,11 +25445,11 @@
         </is>
       </c>
       <c r="I481" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J481" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K481" s="2" t="b">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="L481" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/17/word_level_predictions_17.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,161 +1537,161 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G40" s="2" t="b">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G41" s="2" t="b">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G42" s="2" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G49" s="2" t="b">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3414,156 +3414,156 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Gyroscope</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="D58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>initialization</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="D59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="I62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4090,156 +4090,156 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Visual</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="D71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>positioning</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="D72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>inaccurate</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -4281,11 +4281,11 @@
         </is>
       </c>
       <c r="I74" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K74" s="2" t="b">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G82" s="2" t="b">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6118,156 +6118,156 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>11</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>11</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>11</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>2</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6309,11 +6309,11 @@
         </is>
       </c>
       <c r="I113" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K113" s="2" t="b">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G114" s="2" t="b">
@@ -6361,11 +6361,11 @@
         </is>
       </c>
       <c r="I114" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K114" s="2" t="b">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G148" s="2" t="b">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G149" s="2" t="b">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G150" s="2" t="b">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G152" s="2" t="b">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G193" s="2" t="b">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10642,156 +10642,156 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="inlineStr">
+      <c r="D197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -10833,11 +10833,11 @@
         </is>
       </c>
       <c r="I200" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K200" s="2" t="b">
@@ -10885,11 +10885,11 @@
         </is>
       </c>
       <c r="I201" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K201" s="2" t="b">
@@ -10937,11 +10937,11 @@
         </is>
       </c>
       <c r="I202" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K202" s="2" t="b">
@@ -10989,11 +10989,11 @@
         </is>
       </c>
       <c r="I203" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K203" s="2" t="b">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11110,156 +11110,156 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>20</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>20</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>20</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>2</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12774,366 +12774,366 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
         <is>
           <t>Take</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
         <is>
           <t>care</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
         <is>
           <t>your</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" s="2" t="inlineStr">
         <is>
           <t>gimbal</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G242" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" t="b">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K242" t="b">
-        <v>1</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="E242" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F242" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G242" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D243" t="n">
+      <c r="D243" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G243" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="E243" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D244" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F244" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G275" s="2" t="b">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="L275" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="F276" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G276" s="2" t="b">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="L276" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="F281" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G281" s="2" t="b">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="L281" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="F282" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G282" s="2" t="b">
@@ -15109,7 +15109,7 @@
       </c>
       <c r="L282" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="F283" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G283" s="2" t="b">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="L283" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="F284" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G284" s="2" t="b">
@@ -15213,7 +15213,7 @@
       </c>
       <c r="L284" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15322,156 +15322,156 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
+      <c r="A287" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B287" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="C287" s="2" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D287" t="n">
-        <v>0</v>
-      </c>
-      <c r="E287" t="inlineStr">
+      <c r="D287" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
+      <c r="F287" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
+      <c r="A288" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
         <is>
           <t>attitude</t>
         </is>
       </c>
-      <c r="D288" t="n">
-        <v>1</v>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="D288" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
+      <c r="A289" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B289" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="C289" s="2" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D289" t="n">
+      <c r="D289" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E289" t="inlineStr">
+      <c r="E289" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G289" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I289" t="b">
-        <v>1</v>
-      </c>
-      <c r="J289" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K289" t="b">
-        <v>1</v>
-      </c>
-      <c r="L289" t="inlineStr">
+      <c r="F289" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G289" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H289" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I289" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J289" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K289" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L289" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15501,7 +15501,7 @@
       </c>
       <c r="F290" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G290" s="2" t="b">
@@ -15513,11 +15513,11 @@
         </is>
       </c>
       <c r="I290" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K290" s="2" t="b">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="L290" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15565,11 +15565,11 @@
         </is>
       </c>
       <c r="I291" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F292" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G292" s="2" t="b">
@@ -15617,11 +15617,11 @@
         </is>
       </c>
       <c r="I292" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K292" s="2" t="b">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L292" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G293" s="2" t="b">
@@ -15669,11 +15669,11 @@
         </is>
       </c>
       <c r="I293" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K293" s="2" t="b">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L293" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="F300" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G300" s="2" t="b">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="L300" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16570,156 +16570,156 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B311" t="inlineStr">
+      <c r="B311" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
+      <c r="C311" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E311" t="inlineStr">
+      <c r="D311" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
+      <c r="F311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G311" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" t="b">
-        <v>1</v>
-      </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K311" t="b">
-        <v>1</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="G311" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J311" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L311" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B312" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="C312" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G312" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" t="b">
-        <v>1</v>
-      </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K312" t="b">
-        <v>1</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="D312" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F312" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G312" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J312" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L312" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B313" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C313" s="2" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" t="n">
+      <c r="D313" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E313" t="inlineStr">
+      <c r="E313" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G313" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" t="b">
-        <v>1</v>
-      </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K313" t="b">
-        <v>1</v>
-      </c>
-      <c r="L313" t="inlineStr">
+      <c r="F313" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G313" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J313" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L313" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -16761,11 +16761,11 @@
         </is>
       </c>
       <c r="I314" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K314" s="2" t="b">
@@ -16813,11 +16813,11 @@
         </is>
       </c>
       <c r="I315" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K315" s="2" t="b">
@@ -16865,11 +16865,11 @@
         </is>
       </c>
       <c r="I316" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K316" s="2" t="b">
@@ -16917,11 +16917,11 @@
         </is>
       </c>
       <c r="I317" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K317" s="2" t="b">
@@ -16969,11 +16969,11 @@
         </is>
       </c>
       <c r="I318" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K318" s="2" t="b">
@@ -17021,11 +17021,11 @@
         </is>
       </c>
       <c r="I319" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K319" s="2" t="b">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="F320" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G320" s="2" t="b">
@@ -17073,11 +17073,11 @@
         </is>
       </c>
       <c r="I320" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K320" s="2" t="b">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="L320" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="F321" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G321" s="2" t="b">
@@ -17125,11 +17125,11 @@
         </is>
       </c>
       <c r="I321" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K321" s="2" t="b">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="L321" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F322" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G322" s="2" t="b">
@@ -17177,11 +17177,11 @@
         </is>
       </c>
       <c r="I322" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K322" s="2" t="b">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="L322" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17558,416 +17558,416 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>29</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Manually</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
+      <c r="D330" t="n">
         <v>6</v>
       </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>29</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>adjust</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
+      <c r="D331" t="n">
         <v>7</v>
       </c>
-      <c r="E331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>29</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>8</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F332" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>29</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>route</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>9</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="2" t="n">
+      <c r="A334" t="n">
         <v>29</v>
       </c>
-      <c r="B334" s="2" t="inlineStr">
+      <c r="B334" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C334" s="2" t="inlineStr">
+      <c r="C334" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D334" s="2" t="n">
+      <c r="D334" t="n">
         <v>10</v>
       </c>
-      <c r="E334" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F334" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G334" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H334" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I334" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J334" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K334" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L334" s="2" t="inlineStr">
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G334" t="b">
+        <v>1</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I334" t="b">
+        <v>1</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K334" t="b">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="2" t="n">
+      <c r="A335" t="n">
         <v>29</v>
       </c>
-      <c r="B335" s="2" t="inlineStr">
+      <c r="B335" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C335" s="2" t="inlineStr">
+      <c r="C335" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D335" s="2" t="n">
+      <c r="D335" t="n">
         <v>11</v>
       </c>
-      <c r="E335" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F335" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G335" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H335" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I335" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J335" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K335" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L335" s="2" t="inlineStr">
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G335" t="b">
+        <v>1</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I335" t="b">
+        <v>1</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K335" t="b">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="2" t="n">
+      <c r="A336" t="n">
         <v>29</v>
       </c>
-      <c r="B336" s="2" t="inlineStr">
+      <c r="B336" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C336" s="2" t="inlineStr">
+      <c r="C336" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D336" s="2" t="n">
+      <c r="D336" t="n">
         <v>12</v>
       </c>
-      <c r="E336" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F336" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G336" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H336" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I336" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J336" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K336" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L336" s="2" t="inlineStr">
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G336" t="b">
+        <v>1</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I336" t="b">
+        <v>1</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K336" t="b">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="2" t="n">
+      <c r="A337" t="n">
         <v>29</v>
       </c>
-      <c r="B337" s="2" t="inlineStr">
+      <c r="B337" t="inlineStr">
         <is>
           <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
-      <c r="C337" s="2" t="inlineStr">
+      <c r="C337" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D337" s="2" t="n">
+      <c r="D337" t="n">
         <v>13</v>
       </c>
-      <c r="E337" s="2" t="inlineStr">
+      <c r="E337" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F337" s="2" t="inlineStr">
+      <c r="F337" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G337" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H337" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I337" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J337" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K337" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L337" s="2" t="inlineStr">
+      <c r="G337" t="b">
+        <v>1</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I337" t="b">
+        <v>1</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K337" t="b">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="F357" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G357" s="2" t="b">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="L357" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="F361" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G361" s="2" t="b">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="L361" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -21429,7 +21429,7 @@
       </c>
       <c r="F404" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G404" s="2" t="b">
@@ -21441,11 +21441,11 @@
         </is>
       </c>
       <c r="I404" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J404" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K404" s="2" t="b">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="L404" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="F405" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G405" s="2" t="b">
@@ -21493,11 +21493,11 @@
         </is>
       </c>
       <c r="I405" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J405" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K405" s="2" t="b">
@@ -21505,7 +21505,7 @@
       </c>
       <c r="L405" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -21533,7 +21533,7 @@
       </c>
       <c r="F406" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G406" s="2" t="b">
@@ -21545,11 +21545,11 @@
         </is>
       </c>
       <c r="I406" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K406" s="2" t="b">
@@ -21557,7 +21557,7 @@
       </c>
       <c r="L406" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       </c>
       <c r="F407" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G407" s="2" t="b">
@@ -21597,11 +21597,11 @@
         </is>
       </c>
       <c r="I407" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K407" s="2" t="b">
@@ -21609,317 +21609,317 @@
       </c>
       <c r="L407" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="n">
+      <c r="A408" t="n">
         <v>37</v>
       </c>
-      <c r="B408" s="2" t="inlineStr">
+      <c r="B408" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C408" s="2" t="inlineStr">
+      <c r="C408" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D408" s="2" t="n">
+      <c r="D408" t="n">
         <v>4</v>
       </c>
-      <c r="E408" s="2" t="inlineStr">
+      <c r="E408" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F408" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G408" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H408" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I408" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J408" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K408" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L408" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G408" t="b">
+        <v>1</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I408" t="b">
+        <v>1</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K408" t="b">
+        <v>1</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
+      <c r="A409" t="n">
         <v>37</v>
       </c>
-      <c r="B409" s="2" t="inlineStr">
+      <c r="B409" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C409" s="2" t="inlineStr">
+      <c r="C409" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="D409" s="2" t="n">
+      <c r="D409" t="n">
         <v>5</v>
       </c>
-      <c r="E409" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F409" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G409" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H409" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I409" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J409" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K409" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L409" s="2" t="inlineStr">
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G409" t="b">
+        <v>1</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I409" t="b">
+        <v>1</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K409" t="b">
+        <v>1</v>
+      </c>
+      <c r="L409" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="n">
+      <c r="A410" t="n">
         <v>37</v>
       </c>
-      <c r="B410" s="2" t="inlineStr">
+      <c r="B410" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C410" s="2" t="inlineStr">
+      <c r="C410" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D410" s="2" t="n">
+      <c r="D410" t="n">
         <v>6</v>
       </c>
-      <c r="E410" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F410" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G410" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H410" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I410" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J410" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K410" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L410" s="2" t="inlineStr">
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G410" t="b">
+        <v>1</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I410" t="b">
+        <v>1</v>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K410" t="b">
+        <v>1</v>
+      </c>
+      <c r="L410" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="n">
+      <c r="A411" t="n">
         <v>37</v>
       </c>
-      <c r="B411" s="2" t="inlineStr">
+      <c r="B411" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C411" s="2" t="inlineStr">
+      <c r="C411" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="D411" s="2" t="n">
+      <c r="D411" t="n">
         <v>7</v>
       </c>
-      <c r="E411" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F411" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G411" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H411" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I411" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J411" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K411" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L411" s="2" t="inlineStr">
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G411" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I411" t="b">
+        <v>1</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K411" t="b">
+        <v>1</v>
+      </c>
+      <c r="L411" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="n">
+      <c r="A412" t="n">
         <v>37</v>
       </c>
-      <c r="B412" s="2" t="inlineStr">
+      <c r="B412" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C412" s="2" t="inlineStr">
+      <c r="C412" t="inlineStr">
         <is>
           <t>Recommended</t>
         </is>
       </c>
-      <c r="D412" s="2" t="n">
+      <c r="D412" t="n">
         <v>8</v>
       </c>
-      <c r="E412" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F412" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G412" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H412" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I412" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J412" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K412" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L412" s="2" t="inlineStr">
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G412" t="b">
+        <v>1</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I412" t="b">
+        <v>1</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K412" t="b">
+        <v>1</v>
+      </c>
+      <c r="L412" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="n">
+      <c r="A413" t="n">
         <v>37</v>
       </c>
-      <c r="B413" s="2" t="inlineStr">
+      <c r="B413" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C413" s="2" t="inlineStr">
+      <c r="C413" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D413" s="2" t="n">
+      <c r="D413" t="n">
         <v>9</v>
       </c>
-      <c r="E413" s="2" t="inlineStr">
+      <c r="E413" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F413" s="2" t="inlineStr">
+      <c r="F413" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G413" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H413" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I413" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J413" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K413" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L413" s="2" t="inlineStr">
+      <c r="G413" t="b">
+        <v>1</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I413" t="b">
+        <v>1</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K413" t="b">
+        <v>1</v>
+      </c>
+      <c r="L413" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22677,7 +22677,7 @@
       </c>
       <c r="F428" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G428" s="2" t="b">
@@ -22701,7 +22701,7 @@
       </c>
       <c r="L428" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -23122,468 +23122,468 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="2" t="n">
+      <c r="A437" t="n">
         <v>40</v>
       </c>
-      <c r="B437" s="2" t="inlineStr">
+      <c r="B437" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C437" s="2" t="inlineStr">
+      <c r="C437" t="inlineStr">
         <is>
           <t>Always</t>
         </is>
       </c>
-      <c r="D437" s="2" t="n">
+      <c r="D437" t="n">
         <v>4</v>
       </c>
-      <c r="E437" s="2" t="inlineStr">
+      <c r="E437" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F437" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G437" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H437" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I437" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J437" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K437" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L437" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G437" t="b">
+        <v>1</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I437" t="b">
+        <v>1</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K437" t="b">
+        <v>1</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="2" t="n">
+      <c r="A438" t="n">
         <v>40</v>
       </c>
-      <c r="B438" s="2" t="inlineStr">
+      <c r="B438" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C438" s="2" t="inlineStr">
+      <c r="C438" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
       </c>
-      <c r="D438" s="2" t="n">
+      <c r="D438" t="n">
         <v>5</v>
       </c>
-      <c r="E438" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F438" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G438" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H438" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I438" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J438" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K438" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L438" s="2" t="inlineStr">
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G438" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I438" t="b">
+        <v>1</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K438" t="b">
+        <v>1</v>
+      </c>
+      <c r="L438" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="2" t="n">
+      <c r="A439" t="n">
         <v>40</v>
       </c>
-      <c r="B439" s="2" t="inlineStr">
+      <c r="B439" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C439" s="2" t="inlineStr">
+      <c r="C439" t="inlineStr">
         <is>
           <t>visual</t>
         </is>
       </c>
-      <c r="D439" s="2" t="n">
+      <c r="D439" t="n">
         <v>6</v>
       </c>
-      <c r="E439" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F439" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G439" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H439" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I439" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J439" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K439" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L439" s="2" t="inlineStr">
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G439" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I439" t="b">
+        <v>1</v>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K439" t="b">
+        <v>1</v>
+      </c>
+      <c r="L439" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="2" t="n">
+      <c r="A440" t="n">
         <v>40</v>
       </c>
-      <c r="B440" s="2" t="inlineStr">
+      <c r="B440" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C440" s="2" t="inlineStr">
+      <c r="C440" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="D440" s="2" t="n">
+      <c r="D440" t="n">
         <v>7</v>
       </c>
-      <c r="E440" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F440" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G440" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H440" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I440" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J440" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K440" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L440" s="2" t="inlineStr">
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G440" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I440" t="b">
+        <v>1</v>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K440" t="b">
+        <v>1</v>
+      </c>
+      <c r="L440" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="2" t="n">
+      <c r="A441" t="n">
         <v>40</v>
       </c>
-      <c r="B441" s="2" t="inlineStr">
+      <c r="B441" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C441" s="2" t="inlineStr">
+      <c r="C441" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D441" s="2" t="n">
+      <c r="D441" t="n">
         <v>8</v>
       </c>
-      <c r="E441" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F441" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G441" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H441" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I441" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J441" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K441" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L441" s="2" t="inlineStr">
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G441" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I441" t="b">
+        <v>1</v>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K441" t="b">
+        <v>1</v>
+      </c>
+      <c r="L441" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="2" t="n">
+      <c r="A442" t="n">
         <v>40</v>
       </c>
-      <c r="B442" s="2" t="inlineStr">
+      <c r="B442" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C442" s="2" t="inlineStr">
+      <c r="C442" t="inlineStr">
         <is>
           <t>sight</t>
         </is>
       </c>
-      <c r="D442" s="2" t="n">
+      <c r="D442" t="n">
         <v>9</v>
       </c>
-      <c r="E442" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F442" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G442" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H442" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I442" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J442" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K442" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L442" s="2" t="inlineStr">
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G442" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I442" t="b">
+        <v>1</v>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K442" t="b">
+        <v>1</v>
+      </c>
+      <c r="L442" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="2" t="n">
+      <c r="A443" t="n">
         <v>40</v>
       </c>
-      <c r="B443" s="2" t="inlineStr">
+      <c r="B443" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C443" s="2" t="inlineStr">
+      <c r="C443" t="inlineStr">
         <is>
           <t>unless</t>
         </is>
       </c>
-      <c r="D443" s="2" t="n">
+      <c r="D443" t="n">
         <v>10</v>
       </c>
-      <c r="E443" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F443" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G443" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H443" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I443" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J443" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K443" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L443" s="2" t="inlineStr">
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G443" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I443" t="b">
+        <v>1</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K443" t="b">
+        <v>1</v>
+      </c>
+      <c r="L443" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="n">
+      <c r="A444" t="n">
         <v>40</v>
       </c>
-      <c r="B444" s="2" t="inlineStr">
+      <c r="B444" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C444" s="2" t="inlineStr">
+      <c r="C444" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="D444" s="2" t="n">
+      <c r="D444" t="n">
         <v>11</v>
       </c>
-      <c r="E444" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F444" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G444" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H444" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I444" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J444" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K444" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L444" s="2" t="inlineStr">
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G444" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I444" t="b">
+        <v>1</v>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K444" t="b">
+        <v>1</v>
+      </c>
+      <c r="L444" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="2" t="n">
+      <c r="A445" t="n">
         <v>40</v>
       </c>
-      <c r="B445" s="2" t="inlineStr">
+      <c r="B445" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C445" s="2" t="inlineStr">
+      <c r="C445" t="inlineStr">
         <is>
           <t>authorized</t>
         </is>
       </c>
-      <c r="D445" s="2" t="n">
+      <c r="D445" t="n">
         <v>12</v>
       </c>
-      <c r="E445" s="2" t="inlineStr">
+      <c r="E445" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F445" s="2" t="inlineStr">
+      <c r="F445" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G445" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H445" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I445" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J445" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K445" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L445" s="2" t="inlineStr">
+      <c r="G445" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I445" t="b">
+        <v>1</v>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K445" t="b">
+        <v>1</v>
+      </c>
+      <c r="L445" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
-        <v>0</v>
-      </c>
-      <c r="E457" t="inlineStr">
+      <c r="D457" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24353,11 +24353,11 @@
         </is>
       </c>
       <c r="I460" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K460" s="2" t="b">
@@ -24405,11 +24405,11 @@
         </is>
       </c>
       <c r="I461" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K461" s="2" t="b">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G462" s="2" t="b">
@@ -24457,11 +24457,11 @@
         </is>
       </c>
       <c r="I462" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K462" s="2" t="b">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="L462" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24526,208 +24526,208 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="n">
+      <c r="A464" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B464" t="inlineStr">
+      <c r="B464" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C464" t="inlineStr">
+      <c r="C464" s="2" t="inlineStr">
         <is>
           <t>CrystalSky</t>
         </is>
       </c>
-      <c r="D464" t="n">
-        <v>0</v>
-      </c>
-      <c r="E464" t="inlineStr">
+      <c r="D464" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E464" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F464" t="inlineStr">
+      <c r="F464" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G464" t="b">
-        <v>1</v>
-      </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I464" t="b">
-        <v>1</v>
-      </c>
-      <c r="J464" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K464" t="b">
-        <v>1</v>
-      </c>
-      <c r="L464" t="inlineStr">
+      <c r="G464" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H464" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I464" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J464" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K464" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L464" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="n">
+      <c r="A465" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B465" t="inlineStr">
+      <c r="B465" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr">
+      <c r="C465" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D465" t="n">
-        <v>1</v>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G465" t="b">
-        <v>1</v>
-      </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I465" t="b">
-        <v>1</v>
-      </c>
-      <c r="J465" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K465" t="b">
-        <v>1</v>
-      </c>
-      <c r="L465" t="inlineStr">
+      <c r="D465" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E465" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F465" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G465" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H465" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I465" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J465" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K465" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L465" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="n">
+      <c r="A466" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B466" t="inlineStr">
+      <c r="B466" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr">
+      <c r="C466" s="2" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D466" t="n">
+      <c r="D466" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G466" t="b">
-        <v>1</v>
-      </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I466" t="b">
-        <v>1</v>
-      </c>
-      <c r="J466" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K466" t="b">
-        <v>1</v>
-      </c>
-      <c r="L466" t="inlineStr">
+      <c r="E466" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F466" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G466" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H466" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I466" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J466" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K466" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L466" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="n">
+      <c r="A467" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B467" t="inlineStr">
+      <c r="B467" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr">
+      <c r="C467" s="2" t="inlineStr">
         <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="D467" t="n">
+      <c r="D467" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E467" t="inlineStr">
+      <c r="E467" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G467" t="b">
-        <v>1</v>
-      </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I467" t="b">
-        <v>1</v>
-      </c>
-      <c r="J467" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K467" t="b">
-        <v>1</v>
-      </c>
-      <c r="L467" t="inlineStr">
+      <c r="F467" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G467" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H467" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I467" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J467" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K467" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L467" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24769,11 +24769,11 @@
         </is>
       </c>
       <c r="I468" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J468" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K468" s="2" t="b">
@@ -24809,7 +24809,7 @@
       </c>
       <c r="F469" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G469" s="2" t="b">
@@ -24821,11 +24821,11 @@
         </is>
       </c>
       <c r="I469" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J469" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K469" s="2" t="b">
@@ -24833,7 +24833,7 @@
       </c>
       <c r="L469" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24861,7 +24861,7 @@
       </c>
       <c r="F470" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G470" s="2" t="b">
@@ -24873,11 +24873,11 @@
         </is>
       </c>
       <c r="I470" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J470" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K470" s="2" t="b">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="L470" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24913,7 +24913,7 @@
       </c>
       <c r="F471" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G471" s="2" t="b">
@@ -24925,11 +24925,11 @@
         </is>
       </c>
       <c r="I471" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J471" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K471" s="2" t="b">
@@ -24937,7 +24937,7 @@
       </c>
       <c r="L471" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="F472" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G472" s="2" t="b">
@@ -24977,11 +24977,11 @@
         </is>
       </c>
       <c r="I472" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J472" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K472" s="2" t="b">
@@ -24989,7 +24989,7 @@
       </c>
       <c r="L472" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="F473" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G473" s="2" t="b">
@@ -25029,11 +25029,11 @@
         </is>
       </c>
       <c r="I473" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J473" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K473" s="2" t="b">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="L473" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25069,7 +25069,7 @@
       </c>
       <c r="F474" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G474" s="2" t="b">
@@ -25081,11 +25081,11 @@
         </is>
       </c>
       <c r="I474" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J474" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K474" s="2" t="b">
@@ -25093,7 +25093,7 @@
       </c>
       <c r="L474" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25150,208 +25150,208 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="n">
+      <c r="A476" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B476" t="inlineStr">
+      <c r="B476" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr">
+      <c r="C476" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D476" t="n">
-        <v>0</v>
-      </c>
-      <c r="E476" t="inlineStr">
+      <c r="D476" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F476" t="inlineStr">
+      <c r="F476" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G476" t="b">
-        <v>1</v>
-      </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I476" t="b">
-        <v>1</v>
-      </c>
-      <c r="J476" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K476" t="b">
-        <v>1</v>
-      </c>
-      <c r="L476" t="inlineStr">
+      <c r="G476" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H476" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I476" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J476" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K476" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L476" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="n">
+      <c r="A477" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B477" t="inlineStr">
+      <c r="B477" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C477" t="inlineStr">
+      <c r="C477" s="2" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D477" t="n">
-        <v>1</v>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G477" t="b">
-        <v>1</v>
-      </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I477" t="b">
-        <v>1</v>
-      </c>
-      <c r="J477" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K477" t="b">
-        <v>1</v>
-      </c>
-      <c r="L477" t="inlineStr">
+      <c r="D477" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E477" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F477" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G477" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H477" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I477" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J477" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K477" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L477" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="n">
+      <c r="A478" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B478" t="inlineStr">
+      <c r="B478" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr">
+      <c r="C478" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D478" t="n">
+      <c r="D478" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F478" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G478" t="b">
-        <v>1</v>
-      </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I478" t="b">
-        <v>1</v>
-      </c>
-      <c r="J478" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K478" t="b">
-        <v>1</v>
-      </c>
-      <c r="L478" t="inlineStr">
+      <c r="E478" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F478" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G478" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H478" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I478" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J478" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K478" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L478" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="n">
+      <c r="A479" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B479" t="inlineStr">
+      <c r="B479" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C479" t="inlineStr">
+      <c r="C479" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D479" t="n">
+      <c r="D479" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E479" t="inlineStr">
+      <c r="E479" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G479" t="b">
-        <v>1</v>
-      </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I479" t="b">
-        <v>1</v>
-      </c>
-      <c r="J479" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K479" t="b">
-        <v>1</v>
-      </c>
-      <c r="L479" t="inlineStr">
+      <c r="F479" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G479" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H479" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I479" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J479" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K479" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L479" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -25393,11 +25393,11 @@
         </is>
       </c>
       <c r="I480" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K480" s="2" t="b">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="F481" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G481" s="2" t="b">
@@ -25445,11 +25445,11 @@
         </is>
       </c>
       <c r="I481" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J481" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K481" s="2" t="b">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="L481" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
